--- a/docs/gear-formula.xlsx
+++ b/docs/gear-formula.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B7A85E-0507-45F9-9DA0-96FE56A5C5D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12408E5-1014-4063-A9A2-7B4623C4A103}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,11 +709,11 @@
         <v>0.05</v>
       </c>
       <c r="W3" s="4">
-        <f t="shared" ref="W3:W10" si="17">$Z$18*(F3*$Z$17)</f>
+        <f>$Z$18*(F3*$Z$17)</f>
         <v>40</v>
       </c>
       <c r="X3" s="3">
-        <f t="shared" ref="X3:X10" si="18">W3/P3</f>
+        <f t="shared" ref="X3:X10" si="17">W3/P3</f>
         <v>0.05</v>
       </c>
       <c r="Z3">
@@ -796,11 +796,11 @@
         <v>0.05</v>
       </c>
       <c r="W4" s="4">
+        <f t="shared" ref="W3:W10" si="18">$Z$18*(F4*$Z$17)</f>
+        <v>80</v>
+      </c>
+      <c r="X4" s="3">
         <f t="shared" si="17"/>
-        <v>80</v>
-      </c>
-      <c r="X4" s="3">
-        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="Z4">
@@ -883,11 +883,11 @@
         <v>0.05</v>
       </c>
       <c r="W5" s="4">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="X5" s="3">
         <f t="shared" si="17"/>
-        <v>120</v>
-      </c>
-      <c r="X5" s="3">
-        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="Z5">
@@ -970,11 +970,11 @@
         <v>0.05</v>
       </c>
       <c r="W6" s="4">
+        <f t="shared" si="18"/>
+        <v>160</v>
+      </c>
+      <c r="X6" s="3">
         <f t="shared" si="17"/>
-        <v>160</v>
-      </c>
-      <c r="X6" s="3">
-        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="Z6">
@@ -1057,11 +1057,11 @@
         <v>0.05</v>
       </c>
       <c r="W7" s="4">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X7" s="3">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X7" s="3">
-        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="Z7">
@@ -1144,11 +1144,11 @@
         <v>0.05</v>
       </c>
       <c r="W8" s="4">
+        <f t="shared" si="18"/>
+        <v>240</v>
+      </c>
+      <c r="X8" s="3">
         <f t="shared" si="17"/>
-        <v>240</v>
-      </c>
-      <c r="X8" s="3">
-        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="Z8">
@@ -1231,11 +1231,11 @@
         <v>0.05</v>
       </c>
       <c r="W9" s="4">
+        <f t="shared" si="18"/>
+        <v>280</v>
+      </c>
+      <c r="X9" s="3">
         <f t="shared" si="17"/>
-        <v>280</v>
-      </c>
-      <c r="X9" s="3">
-        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="Z9">
@@ -1318,11 +1318,11 @@
         <v>0.05</v>
       </c>
       <c r="W10" s="4">
+        <f t="shared" si="18"/>
+        <v>320</v>
+      </c>
+      <c r="X10" s="3">
         <f t="shared" si="17"/>
-        <v>320</v>
-      </c>
-      <c r="X10" s="3">
-        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="Z10">
